--- a/data/获取数据/政策导向指标/国企20年数据/301517.xlsx
+++ b/data/获取数据/政策导向指标/国企20年数据/301517.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>股票名称</t>
   </si>
@@ -55,12 +55,36 @@
     <t>换手率</t>
   </si>
   <si>
+    <t>证券代码</t>
+  </si>
+  <si>
+    <t>证券简称</t>
+  </si>
+  <si>
+    <t>变动日期</t>
+  </si>
+  <si>
+    <t>实际控制人名称</t>
+  </si>
+  <si>
+    <t>控股数量(万股)</t>
+  </si>
+  <si>
+    <t>控股比例(%)</t>
+  </si>
+  <si>
+    <t>直接控制人名称</t>
+  </si>
+  <si>
+    <t>控制方式</t>
+  </si>
+  <si>
+    <t>政府支持度</t>
+  </si>
+  <si>
     <t>陕西华达</t>
   </si>
   <si>
-    <t>301517</t>
-  </si>
-  <si>
     <t>2023-10-17</t>
   </si>
   <si>
@@ -101,6 +125,18 @@
   </si>
   <si>
     <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-10-16</t>
+  </si>
+  <si>
+    <t>陕西省人民政府国有资产监督管理委员会</t>
+  </si>
+  <si>
+    <t>长安汇通有限责任公司;陕西电子信息集团有限公司;西京电气总公司</t>
+  </si>
+  <si>
+    <t>单独控制</t>
   </si>
 </sst>
 </file>
@@ -458,13 +494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,16 +540,43 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>301517</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>66</v>
@@ -546,536 +609,594 @@
         <v>78.44</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
+    <row r="3" spans="1:22">
+      <c r="N3">
+        <v>301517</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3">
+        <v>3791</v>
+      </c>
+      <c r="S3">
+        <v>35.1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3">
+        <v>91.80464922388744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="N4">
+        <v>301517</v>
+      </c>
+      <c r="O4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4">
+        <v>3791</v>
+      </c>
+      <c r="S4">
+        <v>35.1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4">
+        <v>91.80464922388744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>301517</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
         <v>70</v>
       </c>
-      <c r="E3">
+      <c r="E5">
         <v>71.3</v>
       </c>
-      <c r="F3">
+      <c r="F5">
         <v>80.98</v>
       </c>
-      <c r="G3">
+      <c r="G5">
         <v>69.69</v>
       </c>
-      <c r="H3">
+      <c r="H5">
         <v>138817</v>
       </c>
-      <c r="I3">
+      <c r="I5">
         <v>1036416404</v>
       </c>
-      <c r="J3">
+      <c r="J5">
         <v>15.22</v>
       </c>
-      <c r="K3">
+      <c r="K5">
         <v>-3.91</v>
       </c>
-      <c r="L3">
+      <c r="L5">
         <v>-2.9</v>
       </c>
-      <c r="M3">
+      <c r="M5">
         <v>65.48999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>301517</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
         <v>67.93000000000001</v>
       </c>
-      <c r="E4">
+      <c r="E6">
         <v>82.5</v>
       </c>
-      <c r="F4">
+      <c r="F6">
         <v>88</v>
       </c>
-      <c r="G4">
+      <c r="G6">
         <v>67.88</v>
       </c>
-      <c r="H4">
+      <c r="H6">
         <v>146777</v>
       </c>
-      <c r="I4">
+      <c r="I6">
         <v>1171638055</v>
       </c>
-      <c r="J4">
+      <c r="J6">
         <v>28.22</v>
       </c>
-      <c r="K4">
+      <c r="K6">
         <v>15.71</v>
       </c>
-      <c r="L4">
+      <c r="L6">
         <v>11.2</v>
       </c>
-      <c r="M4">
+      <c r="M6">
         <v>69.25</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>301517</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
         <v>78.38</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <v>74.59999999999999</v>
       </c>
-      <c r="F5">
+      <c r="F7">
         <v>83.59999999999999</v>
       </c>
-      <c r="G5">
+      <c r="G7">
         <v>70.23</v>
       </c>
-      <c r="H5">
+      <c r="H7">
         <v>115294</v>
       </c>
-      <c r="I5">
+      <c r="I7">
         <v>874787404</v>
       </c>
-      <c r="J5">
+      <c r="J7">
         <v>16.21</v>
       </c>
-      <c r="K5">
+      <c r="K7">
         <v>-9.58</v>
       </c>
-      <c r="L5">
+      <c r="L7">
         <v>-7.9</v>
       </c>
-      <c r="M5">
+      <c r="M7">
         <v>54.4</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>301517</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
         <v>72.2</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>76.89</v>
       </c>
-      <c r="F6">
+      <c r="F8">
         <v>80</v>
       </c>
-      <c r="G6">
+      <c r="G8">
         <v>69</v>
       </c>
-      <c r="H6">
+      <c r="H8">
         <v>107039</v>
       </c>
-      <c r="I6">
+      <c r="I8">
         <v>803701071</v>
       </c>
-      <c r="J6">
+      <c r="J8">
         <v>14.75</v>
       </c>
-      <c r="K6">
+      <c r="K8">
         <v>3.07</v>
       </c>
-      <c r="L6">
+      <c r="L8">
         <v>2.29</v>
       </c>
-      <c r="M6">
+      <c r="M8">
         <v>50.5</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>301517</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
         <v>73.93000000000001</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <v>66.88</v>
       </c>
-      <c r="F7">
+      <c r="F9">
         <v>75.5</v>
       </c>
-      <c r="G7">
+      <c r="G9">
         <v>66.3</v>
       </c>
-      <c r="H7">
+      <c r="H9">
         <v>112964</v>
       </c>
-      <c r="I7">
+      <c r="I9">
         <v>785965924</v>
       </c>
-      <c r="J7">
+      <c r="J9">
         <v>11.97</v>
       </c>
-      <c r="K7">
+      <c r="K9">
         <v>-13.02</v>
       </c>
-      <c r="L7">
+      <c r="L9">
         <v>-10.01</v>
       </c>
-      <c r="M7">
+      <c r="M9">
         <v>53.3</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>301517</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
         <v>63.6</v>
       </c>
-      <c r="E8">
+      <c r="E10">
         <v>67.89</v>
       </c>
-      <c r="F8">
+      <c r="F10">
         <v>70.3</v>
       </c>
-      <c r="G8">
+      <c r="G10">
         <v>62.01</v>
       </c>
-      <c r="H8">
+      <c r="H10">
         <v>102241</v>
       </c>
-      <c r="I8">
+      <c r="I10">
         <v>671652067</v>
       </c>
-      <c r="J8">
+      <c r="J10">
         <v>12.4</v>
       </c>
-      <c r="K8">
+      <c r="K10">
         <v>1.51</v>
       </c>
-      <c r="L8">
+      <c r="L10">
         <v>1.01</v>
       </c>
-      <c r="M8">
+      <c r="M10">
         <v>48.24</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9">
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>301517</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
         <v>64.01000000000001</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>73.8</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <v>77.77</v>
       </c>
-      <c r="G9">
+      <c r="G11">
         <v>63.46</v>
       </c>
-      <c r="H9">
+      <c r="H11">
         <v>122663</v>
       </c>
-      <c r="I9">
+      <c r="I11">
         <v>850958349</v>
       </c>
-      <c r="J9">
+      <c r="J11">
         <v>21.08</v>
       </c>
-      <c r="K9">
+      <c r="K11">
         <v>8.710000000000001</v>
       </c>
-      <c r="L9">
+      <c r="L11">
         <v>5.91</v>
       </c>
-      <c r="M9">
+      <c r="M11">
         <v>57.87</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10">
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>301517</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
         <v>71.40000000000001</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <v>73.84999999999999</v>
       </c>
-      <c r="F10">
+      <c r="F12">
         <v>82</v>
       </c>
-      <c r="G10">
+      <c r="G12">
         <v>69.01000000000001</v>
       </c>
-      <c r="H10">
+      <c r="H12">
         <v>126354</v>
       </c>
-      <c r="I10">
+      <c r="I12">
         <v>939663574</v>
       </c>
-      <c r="J10">
+      <c r="J12">
         <v>17.6</v>
       </c>
-      <c r="K10">
+      <c r="K12">
         <v>0.07000000000000001</v>
       </c>
-      <c r="L10">
+      <c r="L12">
         <v>0.05</v>
       </c>
-      <c r="M10">
+      <c r="M12">
         <v>59.61</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>301517</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
         <v>72.06</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>76.2</v>
       </c>
-      <c r="F11">
+      <c r="F13">
         <v>78.52</v>
       </c>
-      <c r="G11">
+      <c r="G13">
         <v>70.66</v>
       </c>
-      <c r="H11">
+      <c r="H13">
         <v>109622</v>
       </c>
-      <c r="I11">
+      <c r="I13">
         <v>814704593</v>
       </c>
-      <c r="J11">
+      <c r="J13">
         <v>10.64</v>
       </c>
-      <c r="K11">
+      <c r="K13">
         <v>3.18</v>
       </c>
-      <c r="L11">
+      <c r="L13">
         <v>2.35</v>
       </c>
-      <c r="M11">
+      <c r="M13">
         <v>51.72</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12">
+    <row r="14" spans="1:22">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>301517</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
         <v>75.44</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <v>72.90000000000001</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <v>84.55</v>
       </c>
-      <c r="G12">
+      <c r="G14">
         <v>72.03</v>
       </c>
-      <c r="H12">
+      <c r="H14">
         <v>113938</v>
       </c>
-      <c r="I12">
+      <c r="I14">
         <v>888006681</v>
       </c>
-      <c r="J12">
+      <c r="J14">
         <v>16.43</v>
       </c>
-      <c r="K12">
+      <c r="K14">
         <v>-4.33</v>
       </c>
-      <c r="L12">
+      <c r="L14">
         <v>-3.3</v>
       </c>
-      <c r="M12">
+      <c r="M14">
         <v>53.76</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
+    <row r="15" spans="1:22">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>301517</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
         <v>70.01000000000001</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>69.20999999999999</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>75.17</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>67.90000000000001</v>
       </c>
-      <c r="H13">
+      <c r="H15">
         <v>82321</v>
       </c>
-      <c r="I13">
+      <c r="I15">
         <v>582194162</v>
       </c>
-      <c r="J13">
+      <c r="J15">
         <v>9.970000000000001</v>
       </c>
-      <c r="K13">
+      <c r="K15">
         <v>-5.06</v>
       </c>
-      <c r="L13">
+      <c r="L15">
         <v>-3.69</v>
       </c>
-      <c r="M13">
+      <c r="M15">
         <v>38.84</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14">
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>301517</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16">
         <v>68.98</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>63.11</v>
       </c>
-      <c r="F14">
+      <c r="F16">
         <v>69</v>
       </c>
-      <c r="G14">
+      <c r="G16">
         <v>62.9</v>
       </c>
-      <c r="H14">
+      <c r="H16">
         <v>70828</v>
       </c>
-      <c r="I14">
+      <c r="I16">
         <v>464405275</v>
       </c>
-      <c r="J14">
+      <c r="J16">
         <v>8.81</v>
       </c>
-      <c r="K14">
+      <c r="K16">
         <v>-8.81</v>
       </c>
-      <c r="L14">
+      <c r="L16">
         <v>-6.1</v>
       </c>
-      <c r="M14">
+      <c r="M16">
         <v>33.42</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15">
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>301517</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17">
         <v>63.01</v>
       </c>
-      <c r="E15">
+      <c r="E17">
         <v>63.77</v>
       </c>
-      <c r="F15">
+      <c r="F17">
         <v>65.45999999999999</v>
       </c>
-      <c r="G15">
+      <c r="G17">
         <v>62.51</v>
       </c>
-      <c r="H15">
+      <c r="H17">
         <v>48460</v>
       </c>
-      <c r="I15">
+      <c r="I17">
         <v>310789683.92</v>
       </c>
-      <c r="J15">
+      <c r="J17">
         <v>4.67</v>
       </c>
-      <c r="K15">
+      <c r="K17">
         <v>1.05</v>
       </c>
-      <c r="L15">
+      <c r="L17">
         <v>0.66</v>
       </c>
-      <c r="M15">
+      <c r="M17">
         <v>22.86</v>
       </c>
     </row>
